--- a/outputs/fft-c__Bacteroidia_pruned.xlsx
+++ b/outputs/fft-c__Bacteroidia_pruned.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="g__Ruminococcus_E_wrapper-LSVM" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="g__Ruminococcus_E_wrapper-LSV-c" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__Ruminococcus_E_-LSVM-ovo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__C941_-LSVM-ovo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__C941_-LSVM-ovo1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1355,7 +1358,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1400,7 +1403,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1415,7 +1418,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1445,7 +1448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1475,7 +1478,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1490,7 +1493,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1520,7 +1523,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1535,7 +1538,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1565,7 +1568,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1580,7 +1583,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1595,7 +1598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1610,7 +1613,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1655,7 +1658,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1670,7 +1673,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1715,7 +1718,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1730,7 +1733,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1745,7 +1748,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1760,7 +1763,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1790,7 +1793,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1820,7 +1823,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1865,7 +1868,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1880,7 +1883,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1895,7 +1898,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1910,7 +1913,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1940,7 +1943,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1970,7 +1973,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1985,7 +1988,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2030,7 +2033,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2045,7 +2048,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2075,7 +2078,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2090,7 +2093,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2105,7 +2108,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2120,7 +2123,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2135,7 +2138,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2165,7 +2168,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2180,7 +2183,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2195,7 +2198,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2213,6 +2216,2019 @@
         <v>0.1927711443593257</v>
       </c>
       <c r="C59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales-o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.2348143630001765</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1992217982017577</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2274385035097418</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2565866167261708</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2625238229316876</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.221489732513868</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2530655147557264</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2240271506877977</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2384833126349012</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.2480436767599118</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.153294067673674</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2464963609272481</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2639289037723651</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.221641678481813</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2468840545843741</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2724022160410963</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2593506103199614</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2573015299440732</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2386643966949846</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2213913232348177</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2609878273670542</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2615169431632121</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.193342095347588</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2042132669541293</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2439216482046316</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2609199226523378</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2544915337905988</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2563325055248558</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2327841987168822</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2496857002443184</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.1949884256934769</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.242692291939296</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2013374927675721</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1790344457064794</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.2520098894425816</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.2342373468472771</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.2619732186542085</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.2425071514588905</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1825793328754024</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.2533192147374905</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.2129902732927981</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.2454033145318877</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.2581704932611008</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.2202289077683732</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.2051435071954054</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.2567606797882671</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.2571431017109873</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.2101514880193495</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.2698271032436168</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.2549533958395828</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.2623515326549535</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.2311225460788539</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.2517154945245618</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.2272183969531901</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.2613053226149588</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.2375664838310224</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.2559261729020655</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.2131331153293386</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales-o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.2746190574155777</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2689388333339455</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.282130058148382</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2781979976400371</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2701074650742137</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2732861874780507</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2772892600305162</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2758071128462967</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.275463846749065</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.2736434221048383</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.2821214612106347</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2834317307576262</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2633434574514396</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2791940665006742</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2709207805346293</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2657745336763118</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2679825178114714</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2657893790828348</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2741891648643687</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.273355085555568</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2802912935847843</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2773884937027427</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2719078978455753</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2813184502005978</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2595238726650451</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2707711340665937</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2798072021814375</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2723438654440987</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2517330813071038</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2803269645998785</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.2735350119251324</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.2725564314666859</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2729088421717871</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2717914357586552</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.2646671136172503</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales-o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.2619524060390067</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2526699054254888</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2715719103528154</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2665323407778332</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2543818354839595</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2570603453903817</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2636302708831833</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2643144422784074</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2611172030107569</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.2571921206965478</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.2718617499917263</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2719960074591452</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2386431383303945</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2679283840282868</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2568372184286536</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.244736623885628</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2531009439699423</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2455252407517785</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2594503872287975</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2610766296485916</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2674865600238344</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2649099749349976</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2557245768735538</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2710045722939001</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2315834487819526</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2548751459271972</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2682648882575563</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2567766176548978</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2194162707890943</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2692100454382416</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.2601359367265612</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.2588723509759187</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2567473763644287</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2543961596884963</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.2432872850743371</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
